--- a/Fase 2/Evidencias Proyecto/Evidencias de Documentación/Requerimientos NF - F.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de Documentación/Requerimientos NF - F.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -89,14 +89,17 @@
     <t>FUNCIONAL.</t>
   </si>
   <si>
+    <t>FINALIZADO</t>
+  </si>
+  <si>
     <t>Permitir la creación y registros de usuarios.</t>
   </si>
   <si>
-    <t>Inicio de sesión.</t>
-  </si>
-  <si>
-    <t>Facilitar acceso mediante A2F para hacer la 
-app más segura.</t>
+    <t>Inicio de sesión con cuenta 
+google.</t>
+  </si>
+  <si>
+    <t>Facilitar acceso de inicio de sesión.</t>
   </si>
   <si>
     <t>Seguimiento de actividades.</t>
@@ -142,12 +145,10 @@
 del tiempo (datos historicos).</t>
   </si>
   <si>
-    <t>Consejos personalizados.</t>
-  </si>
-  <si>
-    <t>Ofrecer consejos de entrenamiento 
-personalizdos basado en el progreso y las
-metas del usuario.</t>
+    <t>Crear rutinas</t>
+  </si>
+  <si>
+    <t>El usuario pueda crear sus propias rutinas.</t>
   </si>
   <si>
     <t>Gamificación.</t>
@@ -234,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -252,6 +253,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,27 +666,27 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
         <v>2.0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -690,16 +694,16 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -707,16 +711,16 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -724,16 +728,16 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -741,16 +745,16 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -758,16 +762,16 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -775,16 +779,16 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -792,16 +796,16 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -809,16 +813,16 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -826,16 +830,16 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -843,16 +847,16 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
